--- a/tests/models/features/constants/sets.xlsx
+++ b/tests/models/features/constants/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\integration\units\constants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\features\constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC19F4F-F454-4CCD-A85B-956EE3D3782D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FEAB19-F6E1-4CFA-B71D-BABD6DA8426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32140" yWindow="2990" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="2630" windowWidth="18840" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_FLOWS" sheetId="2" r:id="rId1"/>
@@ -428,14 +428,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -514,7 +512,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,7 +531,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -541,18 +539,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/tests/models/features/constants/sets.xlsx
+++ b/tests/models/features/constants/sets.xlsx
@@ -1,68 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\features\constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FEAB19-F6E1-4CFA-B71D-BABD6DA8426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F950C2C-AFB3-4119-8D3F-426CD361ABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="2630" windowWidth="18840" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="3720" windowWidth="14760" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_set_FLOWS" sheetId="2" r:id="rId1"/>
-    <sheet name="_set_FLOWS_AGG" sheetId="3" r:id="rId2"/>
+    <sheet name="_set_FLOWS" sheetId="1" r:id="rId1"/>
+    <sheet name="_set_FLOWS_AGGREGATED" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
-  <si>
-    <t>f_Name</t>
-  </si>
-  <si>
-    <t>f_Category</t>
-  </si>
-  <si>
-    <t>f_Aggregation</t>
-  </si>
-  <si>
-    <t>f_agg_Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+  <si>
+    <t>flows_Name</t>
+  </si>
+  <si>
+    <t>flows_dispatch</t>
+  </si>
+  <si>
+    <t>flows_Aggregation</t>
+  </si>
+  <si>
+    <t>flows_aggregated_Name</t>
+  </si>
+  <si>
+    <t>flows_aggregated_dispatch</t>
+  </si>
+  <si>
+    <t>flows_aggregated_Aggregation</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>Yearly dispatched</t>
   </si>
   <si>
     <t>oil products</t>
   </si>
   <si>
-    <t>Yearly dispatched</t>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>Hourly dispatched</t>
   </si>
   <si>
     <t>electricity, gas</t>
   </si>
   <si>
-    <t>Hourly dispatched</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
     <t>electricity, res</t>
   </si>
   <si>
     <t>transport, icev</t>
   </si>
   <si>
-    <t>transport</t>
-  </si>
-  <si>
     <t>transport, bev</t>
-  </si>
-  <si>
-    <t>f_agg_Category</t>
   </si>
 </sst>
 </file>
@@ -424,17 +427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="3" width="20.1796875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -449,57 +449,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -508,49 +508,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
